--- a/data_raw/SOFR_latest.xlsx
+++ b/data_raw/SOFR_latest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C161"/>
+  <dimension ref="A1:C166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2530,6 +2530,71 @@
         <v>2702</v>
       </c>
     </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>0.0436</v>
+      </c>
+      <c r="C162" t="n">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>0.0437</v>
+      </c>
+      <c r="C163" t="n">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>0.0438</v>
+      </c>
+      <c r="C164" t="n">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>0.0436</v>
+      </c>
+      <c r="C165" t="n">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>0.0434</v>
+      </c>
+      <c r="C166" t="n">
+        <v>2870</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_raw/SOFR_latest.xlsx
+++ b/data_raw/SOFR_latest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C170"/>
+  <dimension ref="A1:C175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2647,6 +2647,71 @@
         <v>2834</v>
       </c>
     </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>0.0442</v>
+      </c>
+      <c r="C171" t="n">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="C172" t="n">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="C173" t="n">
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>0.04389999999999999</v>
+      </c>
+      <c r="C174" t="n">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>0.0441</v>
+      </c>
+      <c r="C175" t="n">
+        <v>2828</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_raw/SOFR_latest.xlsx
+++ b/data_raw/SOFR_latest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C175"/>
+  <dimension ref="A1:C179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2712,6 +2712,58 @@
         <v>2828</v>
       </c>
     </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>0.0442</v>
+      </c>
+      <c r="C176" t="n">
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>0.0451</v>
+      </c>
+      <c r="C177" t="n">
+        <v>2877</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>0.04389999999999999</v>
+      </c>
+      <c r="C178" t="n">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>0.0438</v>
+      </c>
+      <c r="C179" t="n">
+        <v>2853</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
